--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros treino.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros treino.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.0121159481763</v>
+        <v>9.644637140155069</v>
       </c>
       <c r="C2" t="n">
-        <v>39.10588272736661</v>
+        <v>30.56020712527899</v>
       </c>
       <c r="D2" t="n">
-        <v>51.92693998660244</v>
+        <v>41.92431323412709</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.18675785051234</v>
+        <v>11.84478346875757</v>
       </c>
       <c r="C3" t="n">
-        <v>54.2458772889717</v>
+        <v>37.72538132144836</v>
       </c>
       <c r="D3" t="n">
-        <v>71.30606570516915</v>
+        <v>51.29051816946476</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.03974434598455</v>
+        <v>9.335119491811884</v>
       </c>
       <c r="C4" t="n">
-        <v>39.28317461202161</v>
+        <v>29.57352413182927</v>
       </c>
       <c r="D4" t="n">
-        <v>51.81926707846036</v>
+        <v>40.25288504646628</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.72775945607217</v>
+        <v>10.16973620748439</v>
       </c>
       <c r="C5" t="n">
-        <v>38.85333404835764</v>
+        <v>32.47039400627882</v>
       </c>
       <c r="D5" t="n">
-        <v>50.52257429721124</v>
+        <v>43.53560914563882</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.79469852777503</v>
+        <v>9.467623786538564</v>
       </c>
       <c r="C6" t="n">
-        <v>41.91510056916514</v>
+        <v>30.17606712020957</v>
       </c>
       <c r="D6" t="n">
-        <v>54.08503053989261</v>
+        <v>40.52559389370533</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.70602310784886</v>
+        <v>9.970510530480199</v>
       </c>
       <c r="C7" t="n">
-        <v>43.11522870542267</v>
+        <v>32.18792896164314</v>
       </c>
       <c r="D7" t="n">
-        <v>56.11546515796486</v>
+        <v>42.74497187624751</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.09698668534183</v>
+        <v>11.85768020217431</v>
       </c>
       <c r="C8" t="n">
-        <v>54.06202787420902</v>
+        <v>37.75933969437297</v>
       </c>
       <c r="D8" t="n">
-        <v>70.74183449363167</v>
+        <v>51.14418116827949</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.89087544784592</v>
+        <v>11.82573009288133</v>
       </c>
       <c r="C9" t="n">
-        <v>53.53857560612236</v>
+        <v>37.67242701582704</v>
       </c>
       <c r="D9" t="n">
-        <v>70.47311294074726</v>
+        <v>51.2053020020011</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.881953103638049</v>
+        <v>1.54594213127475</v>
       </c>
       <c r="C10" t="n">
-        <v>6.4791908169679</v>
+        <v>6.865072470528635</v>
       </c>
       <c r="D10" t="n">
-        <v>8.448437850243613</v>
+        <v>7.716465633755977</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28.38690276443216</v>
+        <v>19.00011587905093</v>
       </c>
       <c r="C11" t="n">
-        <v>82.26083264389298</v>
+        <v>62.28904520846309</v>
       </c>
       <c r="D11" t="n">
-        <v>84.98398508346493</v>
+        <v>67.0265770114909</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.38870012288326</v>
+        <v>19.04012188493784</v>
       </c>
       <c r="C12" t="n">
-        <v>82.68213404236182</v>
+        <v>62.40774291626659</v>
       </c>
       <c r="D12" t="n">
-        <v>85.19171928673525</v>
+        <v>67.33892497905688</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.49212357151389</v>
+        <v>18.60357825938971</v>
       </c>
       <c r="C13" t="n">
-        <v>82.44826904430818</v>
+        <v>60.74895297741564</v>
       </c>
       <c r="D13" t="n">
-        <v>85.04963441092571</v>
+        <v>66.19036734947117</v>
       </c>
     </row>
   </sheetData>
